--- a/Others/Daily Sales & Allocation/Daily Sales Jan-2021/Others/All Details/Daily Sales Info/Daily Sales 05-01-2020.xlsx
+++ b/Others/Daily Sales & Allocation/Daily Sales Jan-2021/Others/All Details/Daily Sales Info/Daily Sales 05-01-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20520" windowHeight="7875" tabRatio="719"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="20520" windowHeight="7875" tabRatio="719" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Sales" sheetId="35" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Daily Sales'!$A$1:$AT$29</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -354,9 +353,6 @@
     <t>Bivash</t>
   </si>
   <si>
-    <t>Date :04-01-2021</t>
-  </si>
-  <si>
     <t>Date: 05-01-2021</t>
   </si>
   <si>
@@ -370,6 +366,9 @@
   </si>
   <si>
     <t>riko</t>
+  </si>
+  <si>
+    <t>Date :06-01-2021</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1330,9 +1329,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,9 +1524,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1603,21 +1596,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,6 +1633,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2224,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="8" topLeftCell="Z37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -2280,238 +2273,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="25.5" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="155"/>
-      <c r="AJ1" s="155"/>
-      <c r="AK1" s="155"/>
-      <c r="AL1" s="155"/>
-      <c r="AM1" s="155"/>
-      <c r="AN1" s="155"/>
-      <c r="AO1" s="155"/>
-      <c r="AP1" s="155"/>
-      <c r="AQ1" s="155"/>
-      <c r="AR1" s="155"/>
-      <c r="AS1" s="155"/>
-      <c r="AT1" s="155"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
+      <c r="AK1" s="148"/>
+      <c r="AL1" s="148"/>
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="148"/>
+      <c r="AO1" s="148"/>
+      <c r="AP1" s="148"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="148"/>
+      <c r="AS1" s="148"/>
+      <c r="AT1" s="148"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="156"/>
-      <c r="AK2" s="156"/>
-      <c r="AL2" s="156"/>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="156"/>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="156"/>
-      <c r="AQ2" s="156"/>
-      <c r="AR2" s="156"/>
-      <c r="AS2" s="156"/>
-      <c r="AT2" s="156"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="149"/>
+      <c r="AR2" s="149"/>
+      <c r="AS2" s="149"/>
+      <c r="AT2" s="149"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="159"/>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="159"/>
-      <c r="AP3" s="159"/>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="159"/>
-      <c r="AS3" s="159"/>
-      <c r="AT3" s="159"/>
+      <c r="A3" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="152"/>
+      <c r="AK3" s="152"/>
+      <c r="AL3" s="152"/>
+      <c r="AM3" s="152"/>
+      <c r="AN3" s="152"/>
+      <c r="AO3" s="152"/>
+      <c r="AP3" s="152"/>
+      <c r="AQ3" s="152"/>
+      <c r="AR3" s="152"/>
+      <c r="AS3" s="152"/>
+      <c r="AT3" s="152"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147">
+      <c r="B4" s="153"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145">
         <v>618398</v>
       </c>
-      <c r="E4" s="66">
-        <v>0</v>
-      </c>
-      <c r="F4" s="66">
-        <v>0</v>
-      </c>
-      <c r="G4" s="66">
-        <v>0</v>
-      </c>
-      <c r="H4" s="66">
-        <v>0</v>
-      </c>
-      <c r="I4" s="66">
-        <v>0</v>
-      </c>
-      <c r="J4" s="66">
-        <v>0</v>
-      </c>
-      <c r="K4" s="136">
+      <c r="E4" s="65">
+        <v>0</v>
+      </c>
+      <c r="F4" s="65">
+        <v>0</v>
+      </c>
+      <c r="G4" s="65">
+        <v>0</v>
+      </c>
+      <c r="H4" s="65">
+        <v>0</v>
+      </c>
+      <c r="I4" s="65">
+        <v>0</v>
+      </c>
+      <c r="J4" s="65">
+        <v>0</v>
+      </c>
+      <c r="K4" s="134">
         <v>1830</v>
       </c>
-      <c r="L4" s="136">
-        <v>0</v>
-      </c>
-      <c r="M4" s="160">
+      <c r="L4" s="134">
+        <v>0</v>
+      </c>
+      <c r="M4" s="153">
         <v>310</v>
       </c>
-      <c r="N4" s="160"/>
-      <c r="O4" s="136">
+      <c r="N4" s="153"/>
+      <c r="O4" s="134">
         <v>1110</v>
       </c>
-      <c r="P4" s="136">
+      <c r="P4" s="134">
         <v>590</v>
       </c>
-      <c r="Q4" s="66">
-        <v>0</v>
-      </c>
-      <c r="R4" s="66">
-        <v>0</v>
-      </c>
-      <c r="S4" s="66">
+      <c r="Q4" s="65">
+        <v>0</v>
+      </c>
+      <c r="R4" s="65">
+        <v>0</v>
+      </c>
+      <c r="S4" s="65">
         <v>338</v>
       </c>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66">
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65">
         <v>290</v>
       </c>
-      <c r="AA4" s="66">
+      <c r="AA4" s="65">
         <v>499</v>
       </c>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="161"/>
-      <c r="AI4" s="161"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="161"/>
-      <c r="AN4" s="161"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="161"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="154"/>
+      <c r="AK4" s="154"/>
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="154"/>
+      <c r="AR4" s="154"/>
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="154"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -2523,64 +2516,64 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146">
+      <c r="B5" s="153"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144">
         <v>508831</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134">
         <v>5000</v>
       </c>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136">
+      <c r="N5" s="134"/>
+      <c r="O5" s="134">
         <v>530</v>
       </c>
-      <c r="P5" s="136">
+      <c r="P5" s="134">
         <v>5000</v>
       </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66">
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65">
         <v>500</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="161"/>
-      <c r="AG5" s="161"/>
-      <c r="AH5" s="161"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161"/>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="161"/>
-      <c r="AN5" s="161"/>
-      <c r="AO5" s="161"/>
-      <c r="AP5" s="161"/>
-      <c r="AQ5" s="161"/>
-      <c r="AR5" s="161"/>
-      <c r="AS5" s="161"/>
-      <c r="AT5" s="161"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="154"/>
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="154"/>
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="154"/>
+      <c r="AO5" s="154"/>
+      <c r="AP5" s="154"/>
+      <c r="AQ5" s="154"/>
+      <c r="AR5" s="154"/>
+      <c r="AS5" s="154"/>
+      <c r="AT5" s="154"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -2592,142 +2585,142 @@
       <c r="BD5" s="6"/>
     </row>
     <row r="6" spans="1:56" s="2" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="129" t="s">
+      <c r="L6" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="120" t="s">
+      <c r="M6" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="129" t="s">
+      <c r="N6" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="126" t="s">
+      <c r="P6" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q6" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="70" t="s">
+      <c r="R6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="72" t="s">
+      <c r="S6" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="72" t="s">
+      <c r="T6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="73" t="s">
+      <c r="V6" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="131" t="s">
+      <c r="W6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="131" t="s">
+      <c r="X6" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="131" t="s">
+      <c r="Y6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="131" t="s">
+      <c r="Z6" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="131" t="s">
+      <c r="AA6" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="131" t="s">
+      <c r="AB6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="74" t="s">
+      <c r="AC6" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AD6" s="128" t="s">
+      <c r="AD6" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="133" t="s">
+      <c r="AE6" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="132" t="s">
+      <c r="AF6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AG6" s="133" t="s">
+      <c r="AG6" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="AH6" s="132" t="s">
+      <c r="AH6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AI6" s="132" t="s">
+      <c r="AI6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="72" t="s">
+      <c r="AJ6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="134" t="s">
+      <c r="AK6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="134" t="s">
+      <c r="AL6" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="AM6" s="134" t="s">
+      <c r="AM6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AN6" s="72" t="s">
+      <c r="AN6" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AO6" s="72" t="s">
+      <c r="AO6" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AP6" s="73" t="s">
+      <c r="AP6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AQ6" s="75" t="s">
+      <c r="AQ6" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AR6" s="76" t="s">
+      <c r="AR6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AS6" s="77" t="s">
+      <c r="AS6" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AT6" s="78" t="s">
+      <c r="AT6" s="77" t="s">
         <v>19</v>
       </c>
       <c r="AU6" s="23"/>
@@ -2745,10 +2738,10 @@
       <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="120">
         <v>1908446134</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="120" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="34">
@@ -2817,7 +2810,7 @@
       <c r="AN7" s="16">
         <v>0</v>
       </c>
-      <c r="AO7" s="79">
+      <c r="AO7" s="78">
         <f>SUM(D7:P7)*2.75%</f>
         <v>287.1825</v>
       </c>
@@ -2833,12 +2826,12 @@
         <f t="shared" ref="AS7:AS19" si="5">AF7+AH7+AI7</f>
         <v>99.208500000000001</v>
       </c>
-      <c r="AT7" s="110">
+      <c r="AT7" s="109">
         <f t="shared" ref="AT7:AT19" si="6">AS7-AQ7-AN7</f>
         <v>4.2085000000000008</v>
       </c>
       <c r="AU7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV7" s="24"/>
       <c r="AW7" s="6"/>
@@ -2854,7 +2847,7 @@
       <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B8" s="120">
         <v>1908446135</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2881,23 +2874,23 @@
       <c r="P8" s="38">
         <v>70</v>
       </c>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
       <c r="AC8" s="46">
         <f t="shared" si="0"/>
         <v>9384</v>
       </c>
-      <c r="AD8" s="108">
+      <c r="AD8" s="107">
         <f t="shared" si="1"/>
         <v>5654</v>
       </c>
@@ -2928,7 +2921,7 @@
       <c r="AN8" s="16">
         <v>0</v>
       </c>
-      <c r="AO8" s="79">
+      <c r="AO8" s="78">
         <f t="shared" ref="AO8:AO28" si="9">SUM(D8:P8)*2.75%</f>
         <v>164.01</v>
       </c>
@@ -2944,7 +2937,7 @@
         <f t="shared" si="5"/>
         <v>89.147999999999996</v>
       </c>
-      <c r="AT8" s="111">
+      <c r="AT8" s="110">
         <f t="shared" si="6"/>
         <v>-0.85200000000000387</v>
       </c>
@@ -2963,10 +2956,10 @@
       <c r="A9" s="36">
         <v>3</v>
       </c>
-      <c r="B9" s="121">
+      <c r="B9" s="120">
         <v>1908446136</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="120" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="37">
@@ -2990,27 +2983,27 @@
       <c r="P9" s="38">
         <v>60</v>
       </c>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108">
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107">
         <v>45</v>
       </c>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108">
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107">
         <v>5</v>
       </c>
-      <c r="AB9" s="108"/>
+      <c r="AB9" s="107"/>
       <c r="AC9" s="46">
         <f t="shared" si="0"/>
         <v>25068</v>
       </c>
-      <c r="AD9" s="108">
+      <c r="AD9" s="107">
         <f t="shared" si="1"/>
         <v>14193</v>
       </c>
@@ -3041,7 +3034,7 @@
       <c r="AN9" s="16">
         <v>0</v>
       </c>
-      <c r="AO9" s="79">
+      <c r="AO9" s="78">
         <f t="shared" si="9"/>
         <v>393.33249999999998</v>
       </c>
@@ -3057,12 +3050,12 @@
         <f t="shared" si="5"/>
         <v>147.56349999999998</v>
       </c>
-      <c r="AT9" s="111">
+      <c r="AT9" s="110">
         <f t="shared" si="6"/>
         <v>27.563499999999976</v>
       </c>
       <c r="AU9" s="6"/>
-      <c r="AV9" s="89"/>
+      <c r="AV9" s="88"/>
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="5"/>
@@ -3076,10 +3069,10 @@
       <c r="A10" s="36">
         <v>4</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="120">
         <v>1908446137</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="120" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="37">
@@ -3101,23 +3094,23 @@
       <c r="P10" s="38">
         <v>190</v>
       </c>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="108"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
       <c r="AC10" s="46">
         <f t="shared" si="0"/>
         <v>7475</v>
       </c>
-      <c r="AD10" s="108">
+      <c r="AD10" s="107">
         <f>D10*1</f>
         <v>5265</v>
       </c>
@@ -3148,7 +3141,7 @@
       <c r="AN10" s="16">
         <v>0</v>
       </c>
-      <c r="AO10" s="79">
+      <c r="AO10" s="78">
         <f t="shared" si="9"/>
         <v>151.38749999999999</v>
       </c>
@@ -3164,12 +3157,12 @@
         <f>AF10+AH10+AI10</f>
         <v>71.012500000000003</v>
       </c>
-      <c r="AT10" s="111">
+      <c r="AT10" s="110">
         <f>AS10-AQ10-AN10</f>
         <v>41.012500000000003</v>
       </c>
       <c r="AU10" s="6"/>
-      <c r="AV10" s="89"/>
+      <c r="AV10" s="88"/>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
@@ -3183,7 +3176,7 @@
       <c r="A11" s="36">
         <v>5</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="120">
         <v>1908446138</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -3202,25 +3195,25 @@
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
-      <c r="O11" s="112"/>
+      <c r="O11" s="111"/>
       <c r="P11" s="38"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
       <c r="AC11" s="46">
         <f t="shared" si="0"/>
         <v>4541</v>
       </c>
-      <c r="AD11" s="108">
+      <c r="AD11" s="107">
         <f t="shared" si="1"/>
         <v>4541</v>
       </c>
@@ -3251,7 +3244,7 @@
       <c r="AN11" s="16">
         <v>0</v>
       </c>
-      <c r="AO11" s="79">
+      <c r="AO11" s="78">
         <f t="shared" si="9"/>
         <v>124.8775</v>
       </c>
@@ -3267,7 +3260,7 @@
         <f t="shared" si="5"/>
         <v>43.139499999999998</v>
       </c>
-      <c r="AT11" s="111">
+      <c r="AT11" s="110">
         <f t="shared" si="6"/>
         <v>-332.8605</v>
       </c>
@@ -3286,10 +3279,10 @@
       <c r="A12" s="36">
         <v>6</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="120">
         <v>1908446139</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="120" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="37">
@@ -3313,23 +3306,23 @@
       <c r="P12" s="38">
         <v>100</v>
       </c>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
       <c r="AC12" s="46">
         <f>D12*1+E12*999+F12*499+G12*75+H12*50+I12*30+K12*20+L12*19+M12*10+P12*9+N12*10+J12*29+S12*191+V12*4744+W12*110+X12*450+Y12*110+Z12*191+AA12*188+AB12*182+U12*30+T12*350+R12*4+Q12*5+O12*9</f>
         <v>7041</v>
       </c>
-      <c r="AD12" s="108">
+      <c r="AD12" s="107">
         <f>D12*1</f>
         <v>5241</v>
       </c>
@@ -3360,7 +3353,7 @@
       <c r="AN12" s="16">
         <v>0</v>
       </c>
-      <c r="AO12" s="79">
+      <c r="AO12" s="78">
         <f t="shared" si="9"/>
         <v>148.80250000000001</v>
       </c>
@@ -3376,12 +3369,12 @@
         <f>AF12+AH12+AI12</f>
         <v>66.889499999999998</v>
       </c>
-      <c r="AT12" s="111">
+      <c r="AT12" s="110">
         <f>AS12-AQ12-AN12</f>
         <v>19.889499999999998</v>
       </c>
       <c r="AU12" s="6"/>
-      <c r="AV12" s="89"/>
+      <c r="AV12" s="88"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
@@ -3395,10 +3388,10 @@
       <c r="A13" s="36">
         <v>7</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="120">
         <v>1908446140</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="120" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="37">
@@ -3424,23 +3417,23 @@
       <c r="P13" s="38">
         <v>100</v>
       </c>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
       <c r="AC13" s="46">
         <f t="shared" si="0"/>
         <v>7419</v>
       </c>
-      <c r="AD13" s="108">
+      <c r="AD13" s="107">
         <f t="shared" si="1"/>
         <v>5449</v>
       </c>
@@ -3471,7 +3464,7 @@
       <c r="AN13" s="16">
         <v>0</v>
       </c>
-      <c r="AO13" s="79">
+      <c r="AO13" s="78">
         <f t="shared" si="9"/>
         <v>155.3475</v>
       </c>
@@ -3487,12 +3480,12 @@
         <f t="shared" si="5"/>
         <v>70.480499999999992</v>
       </c>
-      <c r="AT13" s="111">
+      <c r="AT13" s="110">
         <f>AS13-AQ13-AN13</f>
         <v>17.480499999999992</v>
       </c>
       <c r="AU13" s="6"/>
-      <c r="AV13" s="89"/>
+      <c r="AV13" s="88"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
@@ -3506,10 +3499,10 @@
       <c r="A14" s="36">
         <v>8</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="120">
         <v>1908446141</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="120" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="37">
@@ -3531,25 +3524,25 @@
       <c r="P14" s="38">
         <v>150</v>
       </c>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108">
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107">
         <v>20</v>
       </c>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
       <c r="AC14" s="46">
         <f t="shared" si="0"/>
         <v>21229</v>
       </c>
-      <c r="AD14" s="108">
+      <c r="AD14" s="107">
         <f t="shared" si="1"/>
         <v>15559</v>
       </c>
@@ -3580,7 +3573,7 @@
       <c r="AN14" s="16">
         <v>0</v>
       </c>
-      <c r="AO14" s="79">
+      <c r="AO14" s="78">
         <f t="shared" si="9"/>
         <v>433.3725</v>
       </c>
@@ -3596,12 +3589,12 @@
         <f t="shared" si="5"/>
         <v>165.38549999999998</v>
       </c>
-      <c r="AT14" s="109">
+      <c r="AT14" s="108">
         <f t="shared" si="6"/>
         <v>44.385499999999979</v>
       </c>
       <c r="AU14" s="6"/>
-      <c r="AV14" s="89"/>
+      <c r="AV14" s="88"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
@@ -3615,10 +3608,10 @@
       <c r="A15" s="36">
         <v>9</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="120">
         <v>1908446142</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="96" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="37">
@@ -3644,25 +3637,25 @@
       <c r="P15" s="38">
         <v>40</v>
       </c>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108">
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107">
         <v>5</v>
       </c>
-      <c r="T15" s="108"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="108"/>
-      <c r="Z15" s="108"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="108"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
       <c r="AC15" s="46">
         <f t="shared" si="0"/>
         <v>33900</v>
       </c>
-      <c r="AD15" s="108">
+      <c r="AD15" s="107">
         <f t="shared" si="1"/>
         <v>31615</v>
       </c>
@@ -3693,7 +3686,7 @@
       <c r="AN15" s="16">
         <v>0</v>
       </c>
-      <c r="AO15" s="79">
+      <c r="AO15" s="78">
         <f t="shared" si="9"/>
         <v>872.98749999999995</v>
       </c>
@@ -3709,14 +3702,14 @@
         <f>AF15+AH15+AI15</f>
         <v>312.97749999999996</v>
       </c>
-      <c r="AT15" s="111">
+      <c r="AT15" s="110">
         <f>AS15-AQ15-AN15</f>
         <v>52.977499999999964</v>
       </c>
       <c r="AU15" s="6"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="88"/>
+      <c r="AV15" s="88"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
       <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
       <c r="BA15" s="6"/>
@@ -3728,10 +3721,10 @@
       <c r="A16" s="36">
         <v>10</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="120">
         <v>1908446143</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="120" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="37">
@@ -3753,25 +3746,25 @@
       <c r="P16" s="38">
         <v>100</v>
       </c>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108">
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107">
         <v>20</v>
       </c>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
       <c r="AC16" s="46">
         <f t="shared" si="0"/>
         <v>25034</v>
       </c>
-      <c r="AD16" s="108">
+      <c r="AD16" s="107">
         <f t="shared" si="1"/>
         <v>18914</v>
       </c>
@@ -3802,7 +3795,7 @@
       <c r="AN16" s="16">
         <v>0</v>
       </c>
-      <c r="AO16" s="79">
+      <c r="AO16" s="78">
         <f t="shared" si="9"/>
         <v>524.81000000000006</v>
       </c>
@@ -3818,12 +3811,12 @@
         <f t="shared" si="5"/>
         <v>201.53299999999999</v>
       </c>
-      <c r="AT16" s="111">
+      <c r="AT16" s="110">
         <f t="shared" si="6"/>
         <v>-200.46700000000001</v>
       </c>
       <c r="AU16" s="6"/>
-      <c r="AV16" s="89"/>
+      <c r="AV16" s="88"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
@@ -3837,10 +3830,10 @@
       <c r="A17" s="36">
         <v>11</v>
       </c>
-      <c r="B17" s="121">
+      <c r="B17" s="120">
         <v>1908446144</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="96" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="37">
@@ -3864,25 +3857,25 @@
       <c r="P17" s="38">
         <v>100</v>
       </c>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108">
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107">
         <v>11</v>
       </c>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="108"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
       <c r="AC17" s="46">
         <f t="shared" si="0"/>
         <v>16164</v>
       </c>
-      <c r="AD17" s="108">
+      <c r="AD17" s="107">
         <f>D17*1</f>
         <v>11893</v>
       </c>
@@ -3913,7 +3906,7 @@
       <c r="AN17" s="16">
         <v>0</v>
       </c>
-      <c r="AO17" s="79">
+      <c r="AO17" s="78">
         <f t="shared" si="9"/>
         <v>333.38249999999999</v>
       </c>
@@ -3929,14 +3922,14 @@
         <f>AF17+AH17+AI17</f>
         <v>133.5985</v>
       </c>
-      <c r="AT17" s="111">
+      <c r="AT17" s="110">
         <f>AS17-AQ17-AN17</f>
         <v>26.598500000000001</v>
       </c>
       <c r="AU17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV17" s="89"/>
+        <v>100</v>
+      </c>
+      <c r="AV17" s="88"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
@@ -3950,7 +3943,7 @@
       <c r="A18" s="36">
         <v>12</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="120">
         <v>1908446145</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -3977,23 +3970,23 @@
       <c r="P18" s="38">
         <v>80</v>
       </c>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
       <c r="AC18" s="46">
         <f t="shared" si="0"/>
         <v>15502</v>
       </c>
-      <c r="AD18" s="108">
+      <c r="AD18" s="107">
         <f>D18*1</f>
         <v>14392</v>
       </c>
@@ -4024,7 +4017,7 @@
       <c r="AN18" s="16">
         <v>0</v>
       </c>
-      <c r="AO18" s="79">
+      <c r="AO18" s="78">
         <f t="shared" si="9"/>
         <v>399.08</v>
       </c>
@@ -4040,12 +4033,12 @@
         <f>AF18+AH18+AI18</f>
         <v>147.26899999999998</v>
       </c>
-      <c r="AT18" s="111">
+      <c r="AT18" s="110">
         <f>AS18-AQ18-AN18</f>
         <v>47.268999999999977</v>
       </c>
       <c r="AU18" s="6"/>
-      <c r="AV18" s="89"/>
+      <c r="AV18" s="88"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
@@ -4059,10 +4052,10 @@
       <c r="A19" s="36">
         <v>13</v>
       </c>
-      <c r="B19" s="121">
+      <c r="B19" s="120">
         <v>1908446146</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="120" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="37">
@@ -4084,27 +4077,27 @@
       <c r="P19" s="38">
         <v>250</v>
       </c>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="108">
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107">
         <v>75</v>
       </c>
-      <c r="T19" s="108"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="108">
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107">
         <v>15</v>
       </c>
-      <c r="AB19" s="108"/>
+      <c r="AB19" s="107"/>
       <c r="AC19" s="46">
         <f t="shared" si="0"/>
         <v>30402</v>
       </c>
-      <c r="AD19" s="108">
+      <c r="AD19" s="107">
         <f t="shared" si="1"/>
         <v>10907</v>
       </c>
@@ -4135,7 +4128,7 @@
       <c r="AN19" s="16">
         <v>0</v>
       </c>
-      <c r="AO19" s="79">
+      <c r="AO19" s="78">
         <f t="shared" si="9"/>
         <v>307.09250000000003</v>
       </c>
@@ -4170,10 +4163,10 @@
       <c r="A20" s="36">
         <v>14</v>
       </c>
-      <c r="B20" s="121">
+      <c r="B20" s="120">
         <v>1908446147</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="120" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="37">
@@ -4197,25 +4190,25 @@
       <c r="P20" s="38">
         <v>450</v>
       </c>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="108">
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107">
         <v>25</v>
       </c>
-      <c r="AB20" s="108"/>
+      <c r="AB20" s="107"/>
       <c r="AC20" s="46">
         <f t="shared" si="0"/>
         <v>21413</v>
       </c>
-      <c r="AD20" s="108">
+      <c r="AD20" s="107">
         <f t="shared" si="1"/>
         <v>9663</v>
       </c>
@@ -4246,7 +4239,7 @@
       <c r="AN20" s="16">
         <v>0</v>
       </c>
-      <c r="AO20" s="79">
+      <c r="AO20" s="78">
         <f t="shared" si="9"/>
         <v>283.60750000000002</v>
       </c>
@@ -4281,10 +4274,10 @@
       <c r="A21" s="36">
         <v>15</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="120">
         <v>1908446148</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="120" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="37">
@@ -4304,25 +4297,25 @@
       <c r="P21" s="38">
         <v>10</v>
       </c>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108">
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107">
         <v>25</v>
       </c>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
       <c r="AC21" s="46">
         <f t="shared" si="0"/>
         <v>11030</v>
       </c>
-      <c r="AD21" s="108">
+      <c r="AD21" s="107">
         <f t="shared" si="1"/>
         <v>6165</v>
       </c>
@@ -4353,7 +4346,7 @@
       <c r="AN21" s="16">
         <v>0</v>
       </c>
-      <c r="AO21" s="79">
+      <c r="AO21" s="78">
         <f t="shared" si="9"/>
         <v>169.8125</v>
       </c>
@@ -4388,10 +4381,10 @@
       <c r="A22" s="36">
         <v>16</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="120">
         <v>1908446149</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="106" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="37">
@@ -4411,27 +4404,27 @@
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108">
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107">
         <v>50</v>
       </c>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="108">
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107">
         <v>5</v>
       </c>
-      <c r="AB22" s="108"/>
+      <c r="AB22" s="107"/>
       <c r="AC22" s="46">
         <f t="shared" si="0"/>
         <v>27556</v>
       </c>
-      <c r="AD22" s="108">
+      <c r="AD22" s="107">
         <f t="shared" si="1"/>
         <v>15066</v>
       </c>
@@ -4462,7 +4455,7 @@
       <c r="AN22" s="16">
         <v>0</v>
       </c>
-      <c r="AO22" s="79">
+      <c r="AO22" s="78">
         <f t="shared" si="9"/>
         <v>419.815</v>
       </c>
@@ -4499,10 +4492,10 @@
       <c r="A23" s="36">
         <v>17</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="120">
         <v>1908446150</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="120" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="37">
@@ -4520,23 +4513,23 @@
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
       <c r="AC23" s="46">
         <f t="shared" si="0"/>
         <v>6515</v>
       </c>
-      <c r="AD23" s="108">
+      <c r="AD23" s="107">
         <f t="shared" si="1"/>
         <v>6515</v>
       </c>
@@ -4567,7 +4560,7 @@
       <c r="AN23" s="16">
         <v>0</v>
       </c>
-      <c r="AO23" s="79">
+      <c r="AO23" s="78">
         <f t="shared" si="9"/>
         <v>179.16249999999999</v>
       </c>
@@ -4602,10 +4595,10 @@
       <c r="A24" s="36">
         <v>18</v>
       </c>
-      <c r="B24" s="121">
+      <c r="B24" s="120">
         <v>1908446151</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="120" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="37">
@@ -4627,27 +4620,27 @@
       <c r="P24" s="38">
         <v>120</v>
       </c>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108">
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107">
         <v>50</v>
       </c>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="108">
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="107">
         <v>10</v>
       </c>
-      <c r="AB24" s="108"/>
+      <c r="AB24" s="107"/>
       <c r="AC24" s="46">
         <f t="shared" si="0"/>
         <v>35660</v>
       </c>
-      <c r="AD24" s="108">
+      <c r="AD24" s="107">
         <f t="shared" si="1"/>
         <v>16150</v>
       </c>
@@ -4671,14 +4664,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="108"/>
-      <c r="AK24" s="108"/>
+      <c r="AJ24" s="107"/>
+      <c r="AK24" s="107"/>
       <c r="AL24" s="19"/>
       <c r="AM24" s="19"/>
       <c r="AN24" s="16">
         <v>0</v>
       </c>
-      <c r="AO24" s="79">
+      <c r="AO24" s="78">
         <f t="shared" si="9"/>
         <v>466.67500000000001</v>
       </c>
@@ -4713,10 +4706,10 @@
       <c r="A25" s="36">
         <v>19</v>
       </c>
-      <c r="B25" s="121">
+      <c r="B25" s="120">
         <v>1908446152</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="120" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="37">
@@ -4734,23 +4727,23 @@
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="108"/>
-      <c r="Z25" s="108"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="108"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
       <c r="AC25" s="46">
         <f t="shared" si="0"/>
         <v>10085</v>
       </c>
-      <c r="AD25" s="108">
+      <c r="AD25" s="107">
         <f t="shared" si="1"/>
         <v>10085</v>
       </c>
@@ -4781,7 +4774,7 @@
       <c r="AN25" s="16">
         <v>0</v>
       </c>
-      <c r="AO25" s="79">
+      <c r="AO25" s="78">
         <f t="shared" si="9"/>
         <v>277.33749999999998</v>
       </c>
@@ -4816,10 +4809,10 @@
       <c r="A26" s="36">
         <v>20</v>
       </c>
-      <c r="B26" s="121">
+      <c r="B26" s="120">
         <v>1908446153</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="125" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="37">
@@ -4845,25 +4838,25 @@
       <c r="P26" s="38">
         <v>100</v>
       </c>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108">
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107">
         <v>10</v>
       </c>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="108"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="107"/>
       <c r="AC26" s="46">
         <f t="shared" si="0"/>
         <v>10636</v>
       </c>
-      <c r="AD26" s="108">
+      <c r="AD26" s="107">
         <f t="shared" si="1"/>
         <v>4646</v>
       </c>
@@ -4894,7 +4887,7 @@
       <c r="AN26" s="16">
         <v>0</v>
       </c>
-      <c r="AO26" s="79">
+      <c r="AO26" s="78">
         <f t="shared" si="9"/>
         <v>136.565</v>
       </c>
@@ -4929,10 +4922,10 @@
       <c r="A27" s="36">
         <v>21</v>
       </c>
-      <c r="B27" s="121">
+      <c r="B27" s="120">
         <v>1908446154</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="120" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="37">
@@ -4954,25 +4947,25 @@
       <c r="P27" s="38">
         <v>170</v>
       </c>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108">
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107">
         <v>20</v>
       </c>
-      <c r="T27" s="108"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="108"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="108"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
       <c r="AC27" s="46">
         <f t="shared" si="0"/>
         <v>10467</v>
       </c>
-      <c r="AD27" s="108">
+      <c r="AD27" s="107">
         <f t="shared" si="1"/>
         <v>4317</v>
       </c>
@@ -5003,7 +4996,7 @@
       <c r="AN27" s="16">
         <v>0</v>
       </c>
-      <c r="AO27" s="79">
+      <c r="AO27" s="78">
         <f t="shared" si="9"/>
         <v>124.49250000000001</v>
       </c>
@@ -5100,7 +5093,7 @@
       <c r="AN28" s="29">
         <v>0</v>
       </c>
-      <c r="AO28" s="79">
+      <c r="AO28" s="78">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5130,199 +5123,199 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="80">
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="79">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
         <v>226673</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K29" s="80">
+      <c r="K29" s="79">
         <f>SUM(K7:K27)</f>
         <v>450</v>
       </c>
-      <c r="L29" s="80">
+      <c r="L29" s="79">
         <f t="shared" ref="L29:N29" si="15">SUM(L7:L18)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="80">
+      <c r="M29" s="79">
         <f>SUM(M7:M27)</f>
         <v>1690</v>
       </c>
-      <c r="N29" s="80">
+      <c r="N29" s="79">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O29" s="80">
+      <c r="O29" s="79">
         <f>SUM(O7:O27)</f>
         <v>120</v>
       </c>
-      <c r="P29" s="80">
+      <c r="P29" s="79">
         <f>SUM(P7:P27)</f>
         <v>2090</v>
       </c>
-      <c r="Q29" s="80">
+      <c r="Q29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R29" s="80">
+      <c r="R29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S29" s="80">
+      <c r="S29" s="79">
         <f t="shared" si="14"/>
         <v>356</v>
       </c>
-      <c r="T29" s="80">
+      <c r="T29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U29" s="80">
+      <c r="U29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V29" s="80">
+      <c r="V29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W29" s="80">
+      <c r="W29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X29" s="80">
+      <c r="X29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="80">
+      <c r="Y29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="80">
+      <c r="Z29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="80">
+      <c r="AA29" s="79">
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="AB29" s="80">
+      <c r="AB29" s="79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="81">
+      <c r="AC29" s="80">
         <f t="shared" si="14"/>
         <v>352303</v>
       </c>
-      <c r="AD29" s="81">
+      <c r="AD29" s="80">
         <f t="shared" si="14"/>
         <v>226673</v>
       </c>
-      <c r="AE29" s="81">
+      <c r="AE29" s="80">
         <f t="shared" si="14"/>
         <v>6233.5074999999997</v>
       </c>
-      <c r="AF29" s="81">
+      <c r="AF29" s="80">
         <f t="shared" si="14"/>
         <v>2153.3935000000001</v>
       </c>
-      <c r="AG29" s="81">
+      <c r="AG29" s="80">
         <f t="shared" si="14"/>
         <v>1259.2250000000001</v>
       </c>
-      <c r="AH29" s="81">
+      <c r="AH29" s="80">
         <f t="shared" si="14"/>
         <v>435.005</v>
       </c>
-      <c r="AI29" s="81">
+      <c r="AI29" s="80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="81">
+      <c r="AJ29" s="80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="81">
+      <c r="AK29" s="80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="81">
+      <c r="AL29" s="80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="81">
+      <c r="AM29" s="80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="81">
+      <c r="AN29" s="80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="82">
+      <c r="AO29" s="81">
         <f>SUM(AO7:AO28)</f>
         <v>6353.1324999999997</v>
       </c>
-      <c r="AP29" s="81">
+      <c r="AP29" s="80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="83">
+      <c r="AQ29" s="82">
         <f t="shared" si="14"/>
         <v>2849</v>
       </c>
-      <c r="AR29" s="84">
+      <c r="AR29" s="83">
         <f>SUM(AR7:AR28)</f>
         <v>341961.26749999996</v>
       </c>
-      <c r="AS29" s="84">
+      <c r="AS29" s="83">
         <f>SUM(AS7:AS28)</f>
         <v>2588.3984999999993</v>
       </c>
-      <c r="AT29" s="84">
+      <c r="AT29" s="83">
         <f t="shared" si="14"/>
         <v>-260.60150000000004</v>
       </c>
-      <c r="AU29" s="85"/>
-      <c r="AV29" s="85"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="90"/>
-      <c r="BC29" s="90"/>
-      <c r="BD29" s="90"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="89"/>
+      <c r="AX29" s="89"/>
+      <c r="AY29" s="89"/>
+      <c r="AZ29" s="89"/>
+      <c r="BA29" s="89"/>
+      <c r="BB29" s="89"/>
+      <c r="BC29" s="89"/>
+      <c r="BD29" s="89"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="165"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32">
         <f t="shared" ref="D30:L30" si="16">D4+D5-D29</f>
@@ -5424,7 +5417,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="86"/>
+      <c r="AC30" s="85"/>
       <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
@@ -5436,12 +5429,12 @@
       <c r="AL30" s="31"/>
       <c r="AM30" s="31"/>
       <c r="AN30" s="31"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
+      <c r="AO30" s="86"/>
+      <c r="AP30" s="94"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="94"/>
+      <c r="AS30" s="94"/>
+      <c r="AT30" s="94"/>
       <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
       <c r="AX30" s="6"/>
@@ -5455,56 +5448,56 @@
     <row r="31" spans="1:56" ht="15">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="91"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93">
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92">
         <v>-100</v>
       </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93">
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92">
         <v>-60</v>
       </c>
-      <c r="P31" s="93">
+      <c r="P31" s="92">
         <v>-150</v>
       </c>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="91"/>
-      <c r="AJ31" s="91"/>
-      <c r="AK31" s="91"/>
-      <c r="AL31" s="91"/>
-      <c r="AM31" s="91"/>
-      <c r="AN31" s="91"/>
-      <c r="AO31" s="94"/>
-      <c r="AP31" s="91"/>
-      <c r="AQ31" s="91"/>
-      <c r="AR31" s="91"/>
-      <c r="AS31" s="91"/>
-      <c r="AT31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="90"/>
+      <c r="AM31" s="90"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="93"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
       <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -5519,77 +5512,77 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="153" t="s">
+      <c r="D32" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
       <c r="O32" s="22"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="AR32" s="154" t="s">
+      <c r="AR32" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="AS32" s="154"/>
-      <c r="AT32" s="154"/>
-      <c r="AU32" s="65"/>
+      <c r="AS32" s="147"/>
+      <c r="AT32" s="147"/>
+      <c r="AU32" s="64"/>
     </row>
     <row r="33" spans="1:48" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="150" t="s">
+      <c r="D33" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116">
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115">
         <v>386746.34749999997</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="AR33" s="114">
+      <c r="AR33" s="113">
         <v>10184</v>
       </c>
       <c r="AS33" s="19" t="s">
         <v>90</v>
       </c>
       <c r="AT33" s="19"/>
-      <c r="AU33" s="65"/>
+      <c r="AU33" s="64"/>
       <c r="AV33" s="14"/>
     </row>
     <row r="34" spans="1:48" ht="15.75">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="151" t="s">
+      <c r="D34" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="96"/>
+      <c r="M34" s="95"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="6"/>
@@ -5609,16 +5602,16 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="97">
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="96">
         <f>M33+M34</f>
         <v>386746.34749999997</v>
       </c>
@@ -5638,18 +5631,18 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="152" t="s">
+      <c r="D36" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="96">
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="95">
         <v>142698</v>
       </c>
       <c r="O36" s="6"/>
@@ -5660,7 +5653,7 @@
         <v>1300</v>
       </c>
       <c r="AS36" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AT36" s="19"/>
     </row>
@@ -5668,18 +5661,18 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="150" t="s">
+      <c r="D37" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="98">
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="97">
         <f>M35-M36</f>
         <v>244048.34749999997</v>
       </c>
@@ -5688,7 +5681,7 @@
         <v>6265</v>
       </c>
       <c r="AS37" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AT37" s="19"/>
     </row>
@@ -5696,18 +5689,18 @@
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="148" t="s">
+      <c r="D38" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117">
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116">
         <v>244000</v>
       </c>
       <c r="AR38" s="19">
@@ -5722,25 +5715,25 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="148" t="s">
+      <c r="D39" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="159"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="97">
+      <c r="M39" s="96">
         <f>M37-M38</f>
         <v>48.347499999974389</v>
       </c>
       <c r="AR39" s="9">
         <v>9000</v>
       </c>
-      <c r="AS39" s="114" t="s">
+      <c r="AS39" s="113" t="s">
         <v>97</v>
       </c>
       <c r="AT39" s="19"/>
@@ -5749,25 +5742,25 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="149" t="s">
+      <c r="D40" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="99">
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="160"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="98">
         <f>M36+M39</f>
         <v>142746.34749999997</v>
       </c>
-      <c r="AO40" s="113"/>
-      <c r="AR40" s="114"/>
+      <c r="AO40" s="112"/>
+      <c r="AR40" s="113"/>
       <c r="AS40" s="19"/>
-      <c r="AT40" s="114"/>
+      <c r="AT40" s="113"/>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="6"/>
@@ -5778,9 +5771,9 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="Q41" s="14"/>
-      <c r="AR41" s="114"/>
+      <c r="AR41" s="113"/>
       <c r="AS41" s="19"/>
-      <c r="AT41" s="114"/>
+      <c r="AT41" s="113"/>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="6"/>
@@ -5790,9 +5783,9 @@
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="AR42" s="114"/>
-      <c r="AS42" s="114"/>
-      <c r="AT42" s="114"/>
+      <c r="AR42" s="113"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="113"/>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="6"/>
@@ -5802,8 +5795,8 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="AR43" s="114"/>
-      <c r="AS43" s="114"/>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
       <c r="AT43" s="19"/>
     </row>
     <row r="44" spans="1:48">
@@ -5814,11 +5807,11 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="AR44" s="114">
+      <c r="AR44" s="113">
         <f>SUM(AR33:AR43)</f>
         <v>38989</v>
       </c>
-      <c r="AS44" s="114"/>
+      <c r="AS44" s="113"/>
       <c r="AT44" s="19"/>
     </row>
     <row r="45" spans="1:48">
@@ -5860,8 +5853,8 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="AR48" s="6"/>
-      <c r="AS48" s="65"/>
-      <c r="AT48" s="65"/>
+      <c r="AS48" s="64"/>
+      <c r="AT48" s="64"/>
     </row>
     <row r="49" spans="1:46">
       <c r="A49" s="6"/>
@@ -6505,10 +6498,18 @@
       <c r="E169" s="6"/>
     </row>
     <row r="65539" spans="1:1">
-      <c r="A65539" s="101"/>
+      <c r="A65539" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="A1:AT1"/>
@@ -6522,14 +6523,6 @@
     <mergeCell ref="AC5:AT5"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
@@ -6615,8 +6608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6640,148 +6633,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
     </row>
     <row r="5" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="172" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="174" t="s">
+      <c r="A5" s="170" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="171"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="142"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="118" t="s">
+      <c r="C6" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="118" t="s">
+      <c r="I6" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="118" t="s">
+      <c r="K6" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="121" t="s">
         <v>66</v>
       </c>
       <c r="N6" s="54" t="s">
@@ -6793,556 +6786,724 @@
       <c r="P6" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="144" t="s">
+      <c r="Q6" s="142" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1">
-      <c r="A7" s="103">
+      <c r="A7" s="102">
         <v>1</v>
       </c>
-      <c r="B7" s="135">
+      <c r="B7" s="133">
         <v>1908446134</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="97">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135">
+      <c r="D7" s="96"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133">
+        <v>200</v>
+      </c>
+      <c r="G7" s="133">
+        <v>400</v>
+      </c>
+      <c r="H7" s="133">
         <v>500</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135">
-        <v>100</v>
+      <c r="I7" s="133">
+        <v>50</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="114">
-        <v>50</v>
-      </c>
-      <c r="O7" s="114">
-        <v>50</v>
-      </c>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="145"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="113">
+        <v>30</v>
+      </c>
+      <c r="O7" s="113">
+        <v>7</v>
+      </c>
+      <c r="P7" s="113">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="143"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1">
-      <c r="A8" s="103">
+      <c r="A8" s="102">
         <v>2</v>
       </c>
-      <c r="B8" s="135">
+      <c r="B8" s="133">
         <v>1908446135</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="97">
-        <v>15000</v>
-      </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133">
+        <v>100</v>
+      </c>
+      <c r="G8" s="133">
+        <v>200</v>
+      </c>
+      <c r="H8" s="133">
+        <v>200</v>
+      </c>
+      <c r="I8" s="133">
+        <v>50</v>
+      </c>
       <c r="J8" s="54"/>
-      <c r="K8" s="119"/>
+      <c r="K8" s="118"/>
       <c r="L8" s="54"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="145"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="113">
+        <v>25</v>
+      </c>
+      <c r="O8" s="113">
+        <v>5</v>
+      </c>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="A9" s="102">
+      <c r="A9" s="101">
         <v>3</v>
       </c>
-      <c r="B9" s="135">
+      <c r="B9" s="133">
         <v>1908446136</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133">
+        <v>100</v>
+      </c>
+      <c r="G9" s="133">
+        <v>100</v>
+      </c>
+      <c r="H9" s="133">
+        <v>500</v>
+      </c>
+      <c r="I9" s="133">
+        <v>50</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="54"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="145"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="113">
+        <v>30</v>
+      </c>
+      <c r="O9" s="113">
+        <v>5</v>
+      </c>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1">
-      <c r="A10" s="106">
+      <c r="A10" s="105">
         <v>4</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="133">
         <v>1908446137</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133">
+        <v>100</v>
+      </c>
+      <c r="H10" s="133">
+        <v>250</v>
+      </c>
+      <c r="I10" s="133">
+        <v>50</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="54"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="124"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="113">
+        <v>50</v>
+      </c>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="122"/>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1">
-      <c r="A11" s="102">
+      <c r="A11" s="101">
         <v>5</v>
       </c>
-      <c r="B11" s="135">
+      <c r="B11" s="133">
         <v>1908446138</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="54"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="124"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="122"/>
     </row>
     <row r="12" spans="1:17" ht="18" customHeight="1">
-      <c r="A12" s="103">
+      <c r="A12" s="102">
         <v>6</v>
       </c>
-      <c r="B12" s="135">
+      <c r="B12" s="133">
         <v>1908446139</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133">
+        <v>100</v>
+      </c>
+      <c r="H12" s="104">
+        <v>60</v>
+      </c>
+      <c r="I12" s="133"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="54"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="124"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="122"/>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1">
-      <c r="A13" s="102">
+      <c r="A13" s="101">
         <v>7</v>
       </c>
-      <c r="B13" s="135">
+      <c r="B13" s="133">
         <v>1908446140</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133">
+        <v>100</v>
+      </c>
+      <c r="G13" s="133">
+        <v>100</v>
+      </c>
+      <c r="H13" s="133">
+        <v>100</v>
+      </c>
+      <c r="I13" s="133"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="54"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="124"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="122"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1">
-      <c r="A14" s="103">
+      <c r="A14" s="102">
         <v>8</v>
       </c>
-      <c r="B14" s="135">
+      <c r="B14" s="133">
         <v>1908446141</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133">
+        <v>100</v>
+      </c>
+      <c r="G14" s="133">
+        <v>100</v>
+      </c>
+      <c r="H14" s="104">
+        <v>200</v>
+      </c>
+      <c r="I14" s="133">
+        <v>50</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="54"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="124"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="113">
+        <v>25</v>
+      </c>
+      <c r="O14" s="113">
+        <v>10</v>
+      </c>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="122"/>
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1">
-      <c r="A15" s="102">
+      <c r="A15" s="101">
         <v>9</v>
       </c>
-      <c r="B15" s="135">
+      <c r="B15" s="133">
         <v>1908446142</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133">
+        <v>90</v>
+      </c>
+      <c r="G15" s="133">
+        <v>50</v>
+      </c>
+      <c r="H15" s="133">
+        <v>60</v>
+      </c>
+      <c r="I15" s="133">
+        <v>20</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="124"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="113">
+        <v>15</v>
+      </c>
+      <c r="O15" s="113">
+        <v>10</v>
+      </c>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="122"/>
     </row>
     <row r="16" spans="1:17" ht="18" customHeight="1">
-      <c r="A16" s="103">
+      <c r="A16" s="102">
         <v>10</v>
       </c>
-      <c r="B16" s="135">
+      <c r="B16" s="133">
         <v>1908446143</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133">
+        <v>100</v>
+      </c>
+      <c r="G16" s="133">
+        <v>100</v>
+      </c>
+      <c r="H16" s="133">
+        <v>100</v>
+      </c>
+      <c r="I16" s="133">
+        <v>50</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="54"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="124"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="113">
+        <v>25</v>
+      </c>
+      <c r="O16" s="113">
+        <v>10</v>
+      </c>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="122"/>
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1">
-      <c r="A17" s="102">
+      <c r="A17" s="101">
         <v>11</v>
       </c>
-      <c r="B17" s="135">
+      <c r="B17" s="133">
         <v>1908446144</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133">
+        <v>100</v>
+      </c>
+      <c r="G17" s="133">
+        <v>100</v>
+      </c>
+      <c r="H17" s="104">
+        <v>100</v>
+      </c>
+      <c r="I17" s="133">
+        <v>50</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="54"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="124"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="113">
+        <v>25</v>
+      </c>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="122"/>
     </row>
     <row r="18" spans="1:17" ht="18" customHeight="1">
-      <c r="A18" s="103">
+      <c r="A18" s="102">
         <v>12</v>
       </c>
-      <c r="B18" s="135">
+      <c r="B18" s="133">
         <v>1908446145</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133">
+        <v>200</v>
+      </c>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133">
+        <v>50</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="124"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="122"/>
     </row>
     <row r="19" spans="1:17" ht="18" customHeight="1">
-      <c r="A19" s="59">
+      <c r="A19" s="58">
         <v>13</v>
       </c>
-      <c r="B19" s="135">
+      <c r="B19" s="133">
         <v>1908446146</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
+      <c r="G19" s="54">
+        <v>100</v>
+      </c>
+      <c r="H19" s="54">
+        <v>250</v>
+      </c>
+      <c r="I19" s="54">
+        <v>50</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="54"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="124"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="113">
+        <v>25</v>
+      </c>
+      <c r="O19" s="113">
+        <v>25</v>
+      </c>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="122"/>
     </row>
     <row r="20" spans="1:17" ht="18" customHeight="1">
-      <c r="A20" s="61">
+      <c r="A20" s="60">
         <v>14</v>
       </c>
-      <c r="B20" s="135">
+      <c r="B20" s="133">
         <v>1908446147</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="62"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
+      <c r="F20" s="54">
+        <v>100</v>
+      </c>
+      <c r="G20" s="54">
+        <v>100</v>
+      </c>
+      <c r="H20" s="54">
+        <v>250</v>
+      </c>
       <c r="I20" s="54"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="54"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="124"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="113">
+        <v>50</v>
+      </c>
+      <c r="O20" s="113">
+        <v>25</v>
+      </c>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="122"/>
     </row>
     <row r="21" spans="1:17" ht="18" customHeight="1">
-      <c r="A21" s="59">
+      <c r="A21" s="58">
         <v>15</v>
       </c>
-      <c r="B21" s="135">
+      <c r="B21" s="133">
         <v>1908446148</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
+      <c r="F21" s="54">
+        <v>100</v>
+      </c>
+      <c r="G21" s="54">
+        <v>100</v>
+      </c>
+      <c r="H21" s="59">
+        <v>100</v>
+      </c>
+      <c r="I21" s="54">
+        <v>50</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="54"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="124"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="113">
+        <v>20</v>
+      </c>
+      <c r="O21" s="113">
+        <v>10</v>
+      </c>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="122"/>
     </row>
     <row r="22" spans="1:17" ht="18" customHeight="1">
-      <c r="A22" s="61">
+      <c r="A22" s="60">
         <v>16</v>
       </c>
-      <c r="B22" s="135">
+      <c r="B22" s="133">
         <v>1908446149</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
+      <c r="G22" s="54">
+        <v>100</v>
+      </c>
+      <c r="H22" s="59">
+        <v>100</v>
+      </c>
+      <c r="I22" s="54">
+        <v>50</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="124"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="122"/>
     </row>
     <row r="23" spans="1:17" ht="18" customHeight="1">
-      <c r="A23" s="59">
+      <c r="A23" s="58">
         <v>17</v>
       </c>
-      <c r="B23" s="135">
+      <c r="B23" s="133">
         <v>1908446150</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="F23" s="54">
+        <v>200</v>
+      </c>
       <c r="G23" s="54"/>
-      <c r="H23" s="60"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="124"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="113">
+        <v>25</v>
+      </c>
+      <c r="O23" s="113">
+        <v>25</v>
+      </c>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="122"/>
     </row>
     <row r="24" spans="1:17" ht="18" customHeight="1">
-      <c r="A24" s="61">
+      <c r="A24" s="60">
         <v>18</v>
       </c>
-      <c r="B24" s="135">
+      <c r="B24" s="133">
         <v>1908446151</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
+      <c r="G24" s="54">
+        <v>100</v>
+      </c>
+      <c r="H24" s="54">
+        <v>100</v>
+      </c>
+      <c r="I24" s="54">
+        <v>50</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
       <c r="L24" s="54"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="124"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="122"/>
     </row>
     <row r="25" spans="1:17" ht="18" customHeight="1">
-      <c r="A25" s="59">
+      <c r="A25" s="58">
         <v>19</v>
       </c>
-      <c r="B25" s="135">
+      <c r="B25" s="133">
         <v>1908446152</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
-      <c r="H25" s="60"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="54"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="124"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="113">
+        <v>40</v>
+      </c>
+      <c r="O25" s="113">
+        <v>25</v>
+      </c>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="122"/>
     </row>
     <row r="26" spans="1:17" ht="18" customHeight="1">
-      <c r="A26" s="64">
+      <c r="A26" s="63">
         <v>20</v>
       </c>
-      <c r="B26" s="135">
+      <c r="B26" s="133">
         <v>1908446153</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="55"/>
       <c r="F26" s="50"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="55">
+        <v>100</v>
+      </c>
+      <c r="H26" s="55">
+        <v>150</v>
+      </c>
+      <c r="I26" s="54">
+        <v>50</v>
+      </c>
       <c r="J26" s="54"/>
       <c r="K26" s="54"/>
       <c r="L26" s="54"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="124"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="113">
+        <v>25</v>
+      </c>
+      <c r="O26" s="113">
+        <v>9</v>
+      </c>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="122"/>
     </row>
     <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="64">
+      <c r="A27" s="63">
         <v>21</v>
       </c>
-      <c r="B27" s="135">
+      <c r="B27" s="133">
         <v>1908446154</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="133" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="55"/>
       <c r="F27" s="50"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="54">
+        <v>500</v>
+      </c>
+      <c r="H27" s="54">
+        <v>330</v>
+      </c>
+      <c r="I27" s="54">
+        <v>210</v>
+      </c>
       <c r="J27" s="54"/>
       <c r="K27" s="54"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="124"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="113">
+        <v>80</v>
+      </c>
+      <c r="O27" s="113">
+        <v>50</v>
+      </c>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="122"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="167"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
       <c r="D28" s="56">
-        <f t="shared" ref="D28:J28" si="0">SUM(D7:D27)</f>
-        <v>35000</v>
+        <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
+        <v>0</v>
       </c>
       <c r="E28" s="56">
         <f t="shared" si="0"/>
@@ -7350,37 +7511,49 @@
       </c>
       <c r="F28" s="56">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1290</v>
       </c>
       <c r="G28" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="H28" s="56">
-        <f>SUM(H7:H27)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3350</v>
       </c>
       <c r="I28" s="56">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>880</v>
       </c>
       <c r="J28" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57">
-        <f>SUM(L7:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="123">
-        <f>SUM(M7:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
+      <c r="K28" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="56">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="O28" s="56">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="P28" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q28" s="57"/>
     </row>
     <row r="29" spans="1:17" ht="15.75">
       <c r="A29" s="6"/>
@@ -7391,6 +7564,15 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
+      <c r="N29" s="4">
+        <v>55</v>
+      </c>
+      <c r="O29" s="4">
+        <v>20</v>
+      </c>
+      <c r="P29" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="6"/>
@@ -7403,6 +7585,12 @@
       <c r="I30" s="11"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
+      <c r="N30" s="4">
+        <v>9</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="6"/>
@@ -7412,6 +7600,9 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="I31" s="6"/>
+      <c r="P31" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="6"/>
@@ -7421,6 +7612,18 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="I32" s="6"/>
+      <c r="N32" s="22">
+        <f>N28+N29+N30+N31</f>
+        <v>554</v>
+      </c>
+      <c r="O32" s="22">
+        <f t="shared" ref="O32:P32" si="1">O28+O29+O30+O31</f>
+        <v>236</v>
+      </c>
+      <c r="P32" s="22">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6"/>
@@ -8057,29 +8260,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
-      <c r="A1" s="121">
+      <c r="A1" s="120">
         <v>1908446134</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
       <c r="K1" s="54"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
       <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="121">
+      <c r="A2" s="120">
         <v>1908446135</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -8087,23 +8290,23 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="121">
+      <c r="A3" s="120">
         <v>1908446136</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="121">
+      <c r="A4" s="120">
         <v>1908446137</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="120" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="121">
+      <c r="A5" s="120">
         <v>1908446138</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -8111,55 +8314,55 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="121">
+      <c r="A6" s="120">
         <v>1908446139</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="120" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="121">
+      <c r="A7" s="120">
         <v>1908446140</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="120" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75">
-      <c r="A8" s="121">
+      <c r="A8" s="120">
         <v>1908446141</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="120" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75">
-      <c r="A9" s="121">
+      <c r="A9" s="120">
         <v>1908446142</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75">
-      <c r="A10" s="121">
+      <c r="A10" s="120">
         <v>1908446143</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="120" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75">
-      <c r="A11" s="121">
+      <c r="A11" s="120">
         <v>1908446144</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="121">
+      <c r="A12" s="120">
         <v>1908446145</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -8167,74 +8370,74 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75">
-      <c r="A13" s="121">
+      <c r="A13" s="120">
         <v>1908446146</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="120" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75">
-      <c r="A14" s="121">
+      <c r="A14" s="120">
         <v>1908446147</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="120" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75">
-      <c r="A15" s="121">
+      <c r="A15" s="120">
         <v>1908446148</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="120" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75">
-      <c r="A16" s="121">
+      <c r="A16" s="120">
         <v>1908446149</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="106" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="121">
+      <c r="A17" s="120">
         <v>1908446150</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="120" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="121">
+      <c r="A18" s="120">
         <v>1908446151</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="120" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
-      <c r="A19" s="121">
+      <c r="A19" s="120">
         <v>1908446152</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="120" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
-      <c r="A20" s="121">
+      <c r="A20" s="120">
         <v>1908446153</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="125" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="121">
+      <c r="A21" s="120">
         <v>1908446154</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="120" t="s">
         <v>90</v>
       </c>
     </row>
